--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3527,28 +3527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.7516535262716</v>
+        <v>338.5695464220536</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.4070335678367</v>
+        <v>463.2457900488683</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.9688886098957</v>
+        <v>419.0342620161533</v>
       </c>
       <c r="AD2" t="n">
-        <v>240751.6535262716</v>
+        <v>338569.5464220537</v>
       </c>
       <c r="AE2" t="n">
-        <v>329407.0335678367</v>
+        <v>463245.7900488683</v>
       </c>
       <c r="AF2" t="n">
         <v>7.841909323095954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.02604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>297968.8886098957</v>
+        <v>419034.2620161533</v>
       </c>
     </row>
     <row r="3">
@@ -3633,28 +3633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.3952747500818</v>
+        <v>280.4578007644385</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.2437027934186</v>
+        <v>383.7347359308383</v>
       </c>
       <c r="AC3" t="n">
-        <v>238.1200932637489</v>
+        <v>347.1116313086828</v>
       </c>
       <c r="AD3" t="n">
-        <v>192395.2747500818</v>
+        <v>280457.8007644385</v>
       </c>
       <c r="AE3" t="n">
-        <v>263243.7027934186</v>
+        <v>383734.7359308383</v>
       </c>
       <c r="AF3" t="n">
         <v>9.380047938730949e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.74479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>238120.0932637489</v>
+        <v>347111.6313086828</v>
       </c>
     </row>
     <row r="4">
@@ -3739,28 +3739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.5186312047608</v>
+        <v>268.7594815598455</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.6759963030416</v>
+        <v>367.7285795016949</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.797445077014</v>
+        <v>332.6330799843553</v>
       </c>
       <c r="AD4" t="n">
-        <v>190518.6312047608</v>
+        <v>268759.4815598455</v>
       </c>
       <c r="AE4" t="n">
-        <v>260675.9963030416</v>
+        <v>367728.5795016949</v>
       </c>
       <c r="AF4" t="n">
         <v>9.804767300212859e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>235797.445077014</v>
+        <v>332633.0799843553</v>
       </c>
     </row>
     <row r="5">
@@ -3845,28 +3845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>179.1978003595506</v>
+        <v>257.4044852958511</v>
       </c>
       <c r="AB5" t="n">
-        <v>245.1863361008246</v>
+        <v>352.1921726660513</v>
       </c>
       <c r="AC5" t="n">
-        <v>221.786096304617</v>
+        <v>318.5794460117274</v>
       </c>
       <c r="AD5" t="n">
-        <v>179197.8003595506</v>
+        <v>257404.4852958512</v>
       </c>
       <c r="AE5" t="n">
-        <v>245186.3361008246</v>
+        <v>352192.1726660513</v>
       </c>
       <c r="AF5" t="n">
         <v>1.012317121488704e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.49479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>221786.096304617</v>
+        <v>318579.4460117274</v>
       </c>
     </row>
     <row r="6">
@@ -3951,28 +3951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>178.3098161136292</v>
+        <v>256.5165010499297</v>
       </c>
       <c r="AB6" t="n">
-        <v>243.9713568804553</v>
+        <v>350.9771934456821</v>
       </c>
       <c r="AC6" t="n">
-        <v>220.6870729958054</v>
+        <v>317.4804227029157</v>
       </c>
       <c r="AD6" t="n">
-        <v>178309.8161136291</v>
+        <v>256516.5010499296</v>
       </c>
       <c r="AE6" t="n">
-        <v>243971.3568804553</v>
+        <v>350977.1934456821</v>
       </c>
       <c r="AF6" t="n">
         <v>1.032995596431863e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.18229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>220687.0729958054</v>
+        <v>317480.4227029157</v>
       </c>
     </row>
     <row r="7">
@@ -4057,28 +4057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>177.6899725519592</v>
+        <v>246.1764670554731</v>
       </c>
       <c r="AB7" t="n">
-        <v>243.123259573811</v>
+        <v>336.8295027643687</v>
       </c>
       <c r="AC7" t="n">
-        <v>219.9199169057948</v>
+        <v>304.6829677638138</v>
       </c>
       <c r="AD7" t="n">
-        <v>177689.9725519592</v>
+        <v>246176.4670554731</v>
       </c>
       <c r="AE7" t="n">
-        <v>243123.259573811</v>
+        <v>336829.5027643687</v>
       </c>
       <c r="AF7" t="n">
         <v>1.043627141112636e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.05208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>219919.9169057948</v>
+        <v>304682.9677638139</v>
       </c>
     </row>
     <row r="8">
@@ -4163,28 +4163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>167.1818035189719</v>
+        <v>245.4558082629769</v>
       </c>
       <c r="AB8" t="n">
-        <v>228.7455191151856</v>
+        <v>335.8434656112537</v>
       </c>
       <c r="AC8" t="n">
-        <v>206.9143678172506</v>
+        <v>303.79103661268</v>
       </c>
       <c r="AD8" t="n">
-        <v>167181.8035189719</v>
+        <v>245455.8082629768</v>
       </c>
       <c r="AE8" t="n">
-        <v>228745.5191151856</v>
+        <v>335843.4656112537</v>
       </c>
       <c r="AF8" t="n">
         <v>1.054584141242821e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>206914.3678172506</v>
+        <v>303791.03661268</v>
       </c>
     </row>
     <row r="9">
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>166.7960140647823</v>
+        <v>245.0700188087872</v>
       </c>
       <c r="AB9" t="n">
-        <v>228.2176649641341</v>
+        <v>335.3156114602022</v>
       </c>
       <c r="AC9" t="n">
-        <v>206.4368913255274</v>
+        <v>303.3135601209568</v>
       </c>
       <c r="AD9" t="n">
-        <v>166796.0140647823</v>
+        <v>245070.0188087872</v>
       </c>
       <c r="AE9" t="n">
-        <v>228217.6649641341</v>
+        <v>335315.6114602022</v>
       </c>
       <c r="AF9" t="n">
         <v>1.055711181410227e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>206436.8913255274</v>
+        <v>303313.5601209567</v>
       </c>
     </row>
     <row r="10">
@@ -4375,28 +4375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>166.4014438055968</v>
+        <v>244.6754485496017</v>
       </c>
       <c r="AB10" t="n">
-        <v>227.6777965283054</v>
+        <v>334.7757430243735</v>
       </c>
       <c r="AC10" t="n">
-        <v>205.9485471755039</v>
+        <v>302.8252159709332</v>
       </c>
       <c r="AD10" t="n">
-        <v>166401.4438055968</v>
+        <v>244675.4485496017</v>
       </c>
       <c r="AE10" t="n">
-        <v>227677.7965283054</v>
+        <v>334775.7430243735</v>
       </c>
       <c r="AF10" t="n">
         <v>1.065251847640195e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>205948.5471755039</v>
+        <v>302825.2159709333</v>
       </c>
     </row>
     <row r="11">
@@ -4481,28 +4481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>165.894711970438</v>
+        <v>244.1687167144429</v>
       </c>
       <c r="AB11" t="n">
-        <v>226.9844636760108</v>
+        <v>334.0824101720789</v>
       </c>
       <c r="AC11" t="n">
-        <v>205.3213850375332</v>
+        <v>302.1980538329626</v>
       </c>
       <c r="AD11" t="n">
-        <v>165894.711970438</v>
+        <v>244168.7167144429</v>
       </c>
       <c r="AE11" t="n">
-        <v>226984.4636760108</v>
+        <v>334082.4101720789</v>
       </c>
       <c r="AF11" t="n">
         <v>1.067138283856228e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>205321.3850375332</v>
+        <v>302198.0538329626</v>
       </c>
     </row>
     <row r="12">
@@ -4587,28 +4587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>165.5528155382788</v>
+        <v>243.8268202822836</v>
       </c>
       <c r="AB12" t="n">
-        <v>226.5166658941246</v>
+        <v>333.6146123901927</v>
       </c>
       <c r="AC12" t="n">
-        <v>204.8982332193919</v>
+        <v>301.7749020148212</v>
       </c>
       <c r="AD12" t="n">
-        <v>165552.8155382788</v>
+        <v>243826.8202822836</v>
       </c>
       <c r="AE12" t="n">
-        <v>226516.6658941246</v>
+        <v>333614.6123901927</v>
       </c>
       <c r="AF12" t="n">
         <v>1.067186499478363e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>204898.2332193919</v>
+        <v>301774.9020148212</v>
       </c>
     </row>
   </sheetData>
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.4951556432907</v>
+        <v>298.5527781865619</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.3770024587691</v>
+        <v>408.4930823338506</v>
       </c>
       <c r="AC2" t="n">
-        <v>261.7592674873632</v>
+        <v>369.507075879549</v>
       </c>
       <c r="AD2" t="n">
-        <v>211495.1556432907</v>
+        <v>298552.7781865618</v>
       </c>
       <c r="AE2" t="n">
-        <v>289377.0024587691</v>
+        <v>408493.0823338506</v>
       </c>
       <c r="AF2" t="n">
         <v>9.536247267356757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>261759.2674873632</v>
+        <v>369507.075879549</v>
       </c>
     </row>
     <row r="3">
@@ -4990,28 +4990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.5113542061418</v>
+        <v>253.9557474070057</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.5106219560928</v>
+        <v>347.4734573389576</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.4611871589601</v>
+        <v>314.3110782526915</v>
       </c>
       <c r="AD3" t="n">
-        <v>176511.3542061418</v>
+        <v>253955.7474070057</v>
       </c>
       <c r="AE3" t="n">
-        <v>241510.6219560928</v>
+        <v>347473.4573389576</v>
       </c>
       <c r="AF3" t="n">
         <v>1.095448105778028e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.67708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>218461.1871589601</v>
+        <v>314311.0782526915</v>
       </c>
     </row>
     <row r="4">
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.8589716966512</v>
+        <v>242.2691994787343</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.5673181397804</v>
+        <v>331.4834068893975</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.0394898823041</v>
+        <v>299.8470957758556</v>
       </c>
       <c r="AD4" t="n">
-        <v>164858.9716966512</v>
+        <v>242269.1994787343</v>
       </c>
       <c r="AE4" t="n">
-        <v>225567.3181397804</v>
+        <v>331483.4068893975</v>
       </c>
       <c r="AF4" t="n">
         <v>1.148772008081407e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.94791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>204039.489882304</v>
+        <v>299847.0957758556</v>
       </c>
     </row>
     <row r="5">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>164.0235123032165</v>
+        <v>241.4337400852996</v>
       </c>
       <c r="AB5" t="n">
-        <v>224.4242057398164</v>
+        <v>330.3402944894335</v>
       </c>
       <c r="AC5" t="n">
-        <v>203.0054745254239</v>
+        <v>298.8130804189755</v>
       </c>
       <c r="AD5" t="n">
-        <v>164023.5123032165</v>
+        <v>241433.7400852996</v>
       </c>
       <c r="AE5" t="n">
-        <v>224424.2057398164</v>
+        <v>330340.2944894335</v>
       </c>
       <c r="AF5" t="n">
         <v>1.168048011845045e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>203005.4745254239</v>
+        <v>298813.0804189754</v>
       </c>
     </row>
     <row r="6">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>163.1621969035667</v>
+        <v>230.8587211466182</v>
       </c>
       <c r="AB6" t="n">
-        <v>223.2457160114626</v>
+        <v>315.8710870406279</v>
       </c>
       <c r="AC6" t="n">
-        <v>201.9394582027231</v>
+        <v>285.724793821419</v>
       </c>
       <c r="AD6" t="n">
-        <v>163162.1969035667</v>
+        <v>230858.7211466182</v>
       </c>
       <c r="AE6" t="n">
-        <v>223245.7160114626</v>
+        <v>315871.0870406279</v>
       </c>
       <c r="AF6" t="n">
         <v>1.191735800253867e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.40104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>201939.4582027231</v>
+        <v>285724.793821419</v>
       </c>
     </row>
     <row r="7">
@@ -5414,28 +5414,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>162.6701124684654</v>
+        <v>230.3666367115169</v>
       </c>
       <c r="AB7" t="n">
-        <v>222.5724243781243</v>
+        <v>315.1977954072896</v>
       </c>
       <c r="AC7" t="n">
-        <v>201.3304245778996</v>
+        <v>285.1157601965955</v>
       </c>
       <c r="AD7" t="n">
-        <v>162670.1124684654</v>
+        <v>230366.6367115169</v>
       </c>
       <c r="AE7" t="n">
-        <v>222572.4243781242</v>
+        <v>315197.7954072896</v>
       </c>
       <c r="AF7" t="n">
         <v>1.201020991255989e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>201330.4245778996</v>
+        <v>285115.7601965955</v>
       </c>
     </row>
     <row r="8">
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>161.8101862657591</v>
+        <v>229.5067105088106</v>
       </c>
       <c r="AB8" t="n">
-        <v>221.3958354103155</v>
+        <v>314.0212064394808</v>
       </c>
       <c r="AC8" t="n">
-        <v>200.2661276098252</v>
+        <v>284.0514632285211</v>
       </c>
       <c r="AD8" t="n">
-        <v>161810.1862657591</v>
+        <v>229506.7105088106</v>
       </c>
       <c r="AE8" t="n">
-        <v>221395.8354103155</v>
+        <v>314021.2064394808</v>
       </c>
       <c r="AF8" t="n">
         <v>1.213293534192742e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>200266.1276098252</v>
+        <v>284051.4632285211</v>
       </c>
     </row>
     <row r="9">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>161.9471966097975</v>
+        <v>229.643720852849</v>
       </c>
       <c r="AB9" t="n">
-        <v>221.5832990074985</v>
+        <v>314.2086700366639</v>
       </c>
       <c r="AC9" t="n">
-        <v>200.4356999443999</v>
+        <v>284.2210355630958</v>
       </c>
       <c r="AD9" t="n">
-        <v>161947.1966097975</v>
+        <v>229643.720852849</v>
       </c>
       <c r="AE9" t="n">
-        <v>221583.2990074985</v>
+        <v>314208.6700366639</v>
       </c>
       <c r="AF9" t="n">
         <v>1.211559155475726e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>200435.6999443999</v>
+        <v>284221.0355630958</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.4289812883752</v>
+        <v>219.8500336587555</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.2965451244825</v>
+        <v>300.8085151507266</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.1306994144259</v>
+        <v>272.0997726522327</v>
       </c>
       <c r="AD2" t="n">
-        <v>154428.9812883752</v>
+        <v>219850.0336587555</v>
       </c>
       <c r="AE2" t="n">
-        <v>211296.5451244825</v>
+        <v>300808.5151507266</v>
       </c>
       <c r="AF2" t="n">
         <v>1.67340103277122e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.32291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>191130.6994144258</v>
+        <v>272099.7726522327</v>
       </c>
     </row>
     <row r="3">
@@ -6029,28 +6029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.8680911578421</v>
+        <v>208.2549781094417</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.4784252174187</v>
+        <v>284.943648610415</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.8222386704165</v>
+        <v>257.7490267080434</v>
       </c>
       <c r="AD3" t="n">
-        <v>142868.0911578421</v>
+        <v>208254.9781094417</v>
       </c>
       <c r="AE3" t="n">
-        <v>195478.4252174187</v>
+        <v>284943.6486104151</v>
       </c>
       <c r="AF3" t="n">
         <v>1.791846161977491e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>176822.2386704165</v>
+        <v>257749.0267080434</v>
       </c>
     </row>
     <row r="4">
@@ -6135,28 +6135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.3185149941279</v>
+        <v>198.4182510435626</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.726470864636</v>
+        <v>271.4846046731157</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.1420497856886</v>
+        <v>245.5744950342288</v>
       </c>
       <c r="AD4" t="n">
-        <v>142318.5149941279</v>
+        <v>198418.2510435626</v>
       </c>
       <c r="AE4" t="n">
-        <v>194726.470864636</v>
+        <v>271484.6046731157</v>
       </c>
       <c r="AF4" t="n">
         <v>1.822092563482915e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.15104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>176142.0497856885</v>
+        <v>245574.4950342288</v>
       </c>
     </row>
   </sheetData>
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.2357588641414</v>
+        <v>246.0963198919714</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.9240755494453</v>
+        <v>336.7198418794224</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.6941286900667</v>
+        <v>304.5837727598168</v>
       </c>
       <c r="AD2" t="n">
-        <v>170235.7588641414</v>
+        <v>246096.3198919714</v>
       </c>
       <c r="AE2" t="n">
-        <v>232924.0755494453</v>
+        <v>336719.8418794224</v>
       </c>
       <c r="AF2" t="n">
         <v>1.333470017411458e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>210694.1286900667</v>
+        <v>304583.7727598168</v>
       </c>
     </row>
     <row r="3">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.3522448786416</v>
+        <v>223.6629159702885</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.2962833339706</v>
+        <v>306.0254689418591</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.7487082228695</v>
+        <v>276.8188276955818</v>
       </c>
       <c r="AD3" t="n">
-        <v>157352.2448786416</v>
+        <v>223662.9159702884</v>
       </c>
       <c r="AE3" t="n">
-        <v>215296.2833339706</v>
+        <v>306025.4689418591</v>
       </c>
       <c r="AF3" t="n">
         <v>1.47736610407927e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>194748.7082228696</v>
+        <v>276818.8276955818</v>
       </c>
     </row>
     <row r="4">
@@ -6644,28 +6644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.572750008343</v>
+        <v>212.9507409076943</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.547302894685</v>
+        <v>291.368598433415</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.4073497763806</v>
+        <v>263.560788337412</v>
       </c>
       <c r="AD4" t="n">
-        <v>146572.750008343</v>
+        <v>212950.7409076943</v>
       </c>
       <c r="AE4" t="n">
-        <v>200547.302894685</v>
+        <v>291368.598433415</v>
       </c>
       <c r="AF4" t="n">
         <v>1.523320067055114e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>181407.3497763806</v>
+        <v>263560.7883374119</v>
       </c>
     </row>
     <row r="5">
@@ -6750,28 +6750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.0131088294187</v>
+        <v>212.39109972877</v>
       </c>
       <c r="AB5" t="n">
-        <v>199.7815771440548</v>
+        <v>290.6028726827848</v>
       </c>
       <c r="AC5" t="n">
-        <v>180.7147038166875</v>
+        <v>262.8681423777188</v>
       </c>
       <c r="AD5" t="n">
-        <v>146013.1088294187</v>
+        <v>212391.09972877</v>
       </c>
       <c r="AE5" t="n">
-        <v>199781.5771440548</v>
+        <v>290602.8726827848</v>
       </c>
       <c r="AF5" t="n">
         <v>1.534479745835024e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>180714.7038166875</v>
+        <v>262868.1423777188</v>
       </c>
     </row>
     <row r="6">
@@ -6856,28 +6856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.048924085313</v>
+        <v>212.4269149846643</v>
       </c>
       <c r="AB6" t="n">
-        <v>199.8305811572269</v>
+        <v>290.6518766959569</v>
       </c>
       <c r="AC6" t="n">
-        <v>180.7590309556201</v>
+        <v>262.9124695166514</v>
       </c>
       <c r="AD6" t="n">
-        <v>146048.924085313</v>
+        <v>212426.9149846643</v>
       </c>
       <c r="AE6" t="n">
-        <v>199830.5811572269</v>
+        <v>290651.8766959569</v>
       </c>
       <c r="AF6" t="n">
         <v>1.534894248189707e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>180759.0309556201</v>
+        <v>262912.4695166514</v>
       </c>
     </row>
   </sheetData>
@@ -7153,28 +7153,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.6579402407328</v>
+        <v>205.4166425789721</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.4543992276542</v>
+        <v>281.0601127191024</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.086821476867</v>
+        <v>254.2361300316196</v>
       </c>
       <c r="AD2" t="n">
-        <v>140657.9402407327</v>
+        <v>205416.6425789721</v>
       </c>
       <c r="AE2" t="n">
-        <v>192454.3992276542</v>
+        <v>281060.1127191024</v>
       </c>
       <c r="AF2" t="n">
         <v>2.022679990071254e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>174086.821476867</v>
+        <v>254236.1300316195</v>
       </c>
     </row>
     <row r="3">
@@ -7259,28 +7259,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.7640220927002</v>
+        <v>195.2383268508389</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.2313009806313</v>
+        <v>267.1336921042789</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.9804540099104</v>
+        <v>241.6388274544163</v>
       </c>
       <c r="AD3" t="n">
-        <v>139764.0220927002</v>
+        <v>195238.3268508389</v>
       </c>
       <c r="AE3" t="n">
-        <v>191231.3009806313</v>
+        <v>267133.6921042789</v>
       </c>
       <c r="AF3" t="n">
         <v>2.090521902204293e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>172980.4540099104</v>
+        <v>241638.8274544163</v>
       </c>
     </row>
   </sheetData>
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.9838767705581</v>
+        <v>311.0389983400476</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.7821804997219</v>
+        <v>425.5772796010056</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.8394601152859</v>
+        <v>384.9607813373482</v>
       </c>
       <c r="AD2" t="n">
-        <v>213983.8767705581</v>
+        <v>311038.9983400475</v>
       </c>
       <c r="AE2" t="n">
-        <v>292782.1804997219</v>
+        <v>425577.2796010056</v>
       </c>
       <c r="AF2" t="n">
         <v>9.026005155569956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>264839.4601152859</v>
+        <v>384960.7813373482</v>
       </c>
     </row>
     <row r="3">
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.0597054334461</v>
+        <v>265.6638152163581</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.3115855825816</v>
+        <v>363.4929522393751</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.7541289937336</v>
+        <v>328.801695043211</v>
       </c>
       <c r="AD3" t="n">
-        <v>188059.7054334461</v>
+        <v>265663.8152163581</v>
       </c>
       <c r="AE3" t="n">
-        <v>257311.5855825816</v>
+        <v>363492.9522393751</v>
       </c>
       <c r="AF3" t="n">
         <v>1.045348056774504e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>232754.1289937336</v>
+        <v>328801.695043211</v>
       </c>
     </row>
     <row r="4">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>176.0182382505277</v>
+        <v>243.9475847533906</v>
       </c>
       <c r="AB4" t="n">
-        <v>240.8359189508813</v>
+        <v>333.7798476673136</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.8508768616142</v>
+        <v>301.9243674690029</v>
       </c>
       <c r="AD4" t="n">
-        <v>176018.2382505277</v>
+        <v>243947.5847533906</v>
       </c>
       <c r="AE4" t="n">
-        <v>240835.9189508813</v>
+        <v>333779.8476673136</v>
       </c>
       <c r="AF4" t="n">
         <v>1.105826886111901e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>217850.8768616141</v>
+        <v>301924.3674690029</v>
       </c>
     </row>
     <row r="5">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.270181959552</v>
+        <v>242.9074461313843</v>
       </c>
       <c r="AB5" t="n">
-        <v>226.1299541627974</v>
+        <v>332.3566841170079</v>
       </c>
       <c r="AC5" t="n">
-        <v>204.5484287129491</v>
+        <v>300.6370286505154</v>
       </c>
       <c r="AD5" t="n">
-        <v>165270.181959552</v>
+        <v>242907.4461313843</v>
       </c>
       <c r="AE5" t="n">
-        <v>226129.9541627974</v>
+        <v>332356.6841170079</v>
       </c>
       <c r="AF5" t="n">
         <v>1.127681121526862e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>204548.4287129491</v>
+        <v>300637.0286505154</v>
       </c>
     </row>
     <row r="6">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>164.4166670605902</v>
+        <v>242.0539312324225</v>
       </c>
       <c r="AB6" t="n">
-        <v>224.9621374236187</v>
+        <v>331.1888673778291</v>
       </c>
       <c r="AC6" t="n">
-        <v>203.4920667643161</v>
+        <v>299.5806667018824</v>
       </c>
       <c r="AD6" t="n">
-        <v>164416.6670605902</v>
+        <v>242053.9312324225</v>
       </c>
       <c r="AE6" t="n">
-        <v>224962.1374236187</v>
+        <v>331188.8673778291</v>
       </c>
       <c r="AF6" t="n">
         <v>1.149387345335655e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>203492.0667643161</v>
+        <v>299580.6667018824</v>
       </c>
     </row>
     <row r="7">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>163.8818989656572</v>
+        <v>231.7770800497393</v>
       </c>
       <c r="AB7" t="n">
-        <v>224.2304441238284</v>
+        <v>317.1276262070129</v>
       </c>
       <c r="AC7" t="n">
-        <v>202.8302052461196</v>
+        <v>286.8614106533284</v>
       </c>
       <c r="AD7" t="n">
-        <v>163881.8989656572</v>
+        <v>231777.0800497392</v>
       </c>
       <c r="AE7" t="n">
-        <v>224230.4441238284</v>
+        <v>317127.6262070129</v>
       </c>
       <c r="AF7" t="n">
         <v>1.159973392820228e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>202830.2052461196</v>
+        <v>286861.4106533284</v>
       </c>
     </row>
     <row r="8">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>163.4346600754836</v>
+        <v>231.3298411595656</v>
       </c>
       <c r="AB8" t="n">
-        <v>223.6185121435058</v>
+        <v>316.5156942266904</v>
       </c>
       <c r="AC8" t="n">
-        <v>202.2766751951469</v>
+        <v>286.3078806023557</v>
       </c>
       <c r="AD8" t="n">
-        <v>163434.6600754836</v>
+        <v>231329.8411595656</v>
       </c>
       <c r="AE8" t="n">
-        <v>223618.5121435058</v>
+        <v>316515.6942266903</v>
       </c>
       <c r="AF8" t="n">
         <v>1.160790674297761e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>202276.6751951469</v>
+        <v>286307.8806023557</v>
       </c>
     </row>
     <row r="9">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>163.0060576999932</v>
+        <v>230.9012387840752</v>
       </c>
       <c r="AB9" t="n">
-        <v>223.0320794647579</v>
+        <v>315.9292615479424</v>
       </c>
       <c r="AC9" t="n">
-        <v>201.746210828195</v>
+        <v>285.7774162354038</v>
       </c>
       <c r="AD9" t="n">
-        <v>163006.0576999932</v>
+        <v>230901.2387840752</v>
       </c>
       <c r="AE9" t="n">
-        <v>223032.0794647579</v>
+        <v>315929.2615479424</v>
       </c>
       <c r="AF9" t="n">
         <v>1.171531168675726e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>201746.210828195</v>
+        <v>285777.4162354039</v>
       </c>
     </row>
     <row r="10">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>162.9678350657933</v>
+        <v>230.8630161498753</v>
       </c>
       <c r="AB10" t="n">
-        <v>222.979781570382</v>
+        <v>315.8769636535665</v>
       </c>
       <c r="AC10" t="n">
-        <v>201.6989041714578</v>
+        <v>285.7301095786666</v>
       </c>
       <c r="AD10" t="n">
-        <v>162967.8350657933</v>
+        <v>230863.0161498753</v>
       </c>
       <c r="AE10" t="n">
-        <v>222979.781570382</v>
+        <v>315876.9636535665</v>
       </c>
       <c r="AF10" t="n">
         <v>1.171949462345329e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH10" t="n">
-        <v>201698.9041714578</v>
+        <v>285730.1095786666</v>
       </c>
     </row>
   </sheetData>
@@ -8701,28 +8701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.3000337484615</v>
+        <v>202.5251770638749</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.2282075414375</v>
+        <v>277.1038820388928</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.1685329971934</v>
+        <v>250.6574764549232</v>
       </c>
       <c r="AD2" t="n">
-        <v>138300.0337484615</v>
+        <v>202525.1770638749</v>
       </c>
       <c r="AE2" t="n">
-        <v>189228.2075414375</v>
+        <v>277103.8820388928</v>
       </c>
       <c r="AF2" t="n">
         <v>2.270908390039143e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>171168.5329971933</v>
+        <v>250657.4764549232</v>
       </c>
     </row>
     <row r="3">
@@ -8807,28 +8807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.2780002650864</v>
+        <v>193.381956054933</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.198060357435</v>
+        <v>264.5937236840223</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.1412630181201</v>
+        <v>239.3412700553201</v>
       </c>
       <c r="AD3" t="n">
-        <v>138278.0002650864</v>
+        <v>193381.956054933</v>
       </c>
       <c r="AE3" t="n">
-        <v>189198.060357435</v>
+        <v>264593.7236840223</v>
       </c>
       <c r="AF3" t="n">
         <v>2.285154847497443e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.15104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>171141.2630181201</v>
+        <v>239341.2700553201</v>
       </c>
     </row>
   </sheetData>
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.8284574790686</v>
+        <v>272.0902861126276</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.2586936956913</v>
+        <v>372.2859332355373</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.9926008237664</v>
+        <v>336.7554862741258</v>
       </c>
       <c r="AD2" t="n">
-        <v>185828.4574790686</v>
+        <v>272090.2861126275</v>
       </c>
       <c r="AE2" t="n">
-        <v>254258.6936956913</v>
+        <v>372285.9332355373</v>
       </c>
       <c r="AF2" t="n">
         <v>1.115290226230774e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.74479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>229992.6008237664</v>
+        <v>336755.4862741258</v>
       </c>
     </row>
     <row r="3">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.0717073897818</v>
+        <v>238.7450922397443</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.7536601497008</v>
+        <v>326.6615678923752</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.5898020582938</v>
+        <v>295.485446325214</v>
       </c>
       <c r="AD3" t="n">
-        <v>162071.7073897818</v>
+        <v>238745.0922397443</v>
       </c>
       <c r="AE3" t="n">
-        <v>221753.6601497008</v>
+        <v>326661.5678923752</v>
       </c>
       <c r="AF3" t="n">
         <v>1.259127629293532e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>200589.8020582938</v>
+        <v>295485.446325214</v>
       </c>
     </row>
     <row r="4">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.8114954314734</v>
+        <v>227.8632821089193</v>
       </c>
       <c r="AB4" t="n">
-        <v>220.0293825517163</v>
+        <v>311.7725951998067</v>
       </c>
       <c r="AC4" t="n">
-        <v>199.0300870942216</v>
+        <v>282.0174562896152</v>
       </c>
       <c r="AD4" t="n">
-        <v>160811.4954314734</v>
+        <v>227863.2821089193</v>
       </c>
       <c r="AE4" t="n">
-        <v>220029.3825517163</v>
+        <v>311772.5951998067</v>
       </c>
       <c r="AF4" t="n">
         <v>1.300681931639047e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>199030.0870942216</v>
+        <v>282017.4562896151</v>
       </c>
     </row>
     <row r="5">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.9675256511229</v>
+        <v>227.0193123285689</v>
       </c>
       <c r="AB5" t="n">
-        <v>218.8746258649224</v>
+        <v>310.6178385130129</v>
       </c>
       <c r="AC5" t="n">
-        <v>197.9855387649038</v>
+        <v>280.9729079602973</v>
       </c>
       <c r="AD5" t="n">
-        <v>159967.5256511229</v>
+        <v>227019.3123285689</v>
       </c>
       <c r="AE5" t="n">
-        <v>218874.6258649224</v>
+        <v>310617.8385130129</v>
       </c>
       <c r="AF5" t="n">
         <v>1.322466568485583e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.11458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>197985.5387649038</v>
+        <v>280972.9079602973</v>
       </c>
     </row>
     <row r="6">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>149.3884507826326</v>
+        <v>226.0276702138143</v>
       </c>
       <c r="AB6" t="n">
-        <v>204.3998689140172</v>
+        <v>309.2610300234439</v>
       </c>
       <c r="AC6" t="n">
-        <v>184.8922323019393</v>
+        <v>279.7455913686796</v>
       </c>
       <c r="AD6" t="n">
-        <v>149388.4507826326</v>
+        <v>226027.6702138143</v>
       </c>
       <c r="AE6" t="n">
-        <v>204399.8689140172</v>
+        <v>309261.0300234439</v>
       </c>
       <c r="AF6" t="n">
         <v>1.346474127459316e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.88020833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>184892.2323019393</v>
+        <v>279745.5913686796</v>
       </c>
     </row>
     <row r="7">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>149.2435436451439</v>
+        <v>225.8827630763257</v>
       </c>
       <c r="AB7" t="n">
-        <v>204.2016005756536</v>
+        <v>309.0627616850803</v>
       </c>
       <c r="AC7" t="n">
-        <v>184.7128864155177</v>
+        <v>279.566245482258</v>
       </c>
       <c r="AD7" t="n">
-        <v>149243.5436451439</v>
+        <v>225882.7630763256</v>
       </c>
       <c r="AE7" t="n">
-        <v>204201.6005756536</v>
+        <v>309062.7616850802</v>
       </c>
       <c r="AF7" t="n">
         <v>1.346474127459316e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.88020833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>184712.8864155177</v>
+        <v>279566.245482258</v>
       </c>
     </row>
   </sheetData>
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.5443445766202</v>
+        <v>286.4041584774922</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.0253755247849</v>
+        <v>391.870804888626</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.9682168783006</v>
+        <v>354.4712052641837</v>
       </c>
       <c r="AD2" t="n">
-        <v>199544.3445766202</v>
+        <v>286404.1584774922</v>
       </c>
       <c r="AE2" t="n">
-        <v>273025.3755247848</v>
+        <v>391870.804888626</v>
       </c>
       <c r="AF2" t="n">
         <v>1.00303458110919e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>246968.2168783006</v>
+        <v>354471.2052641837</v>
       </c>
     </row>
     <row r="3">
@@ -10037,28 +10037,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.859573026425</v>
+        <v>251.9668112673783</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.2505820745626</v>
+        <v>344.7521071670511</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.4168423117366</v>
+        <v>311.8494499217518</v>
       </c>
       <c r="AD3" t="n">
-        <v>174859.573026425</v>
+        <v>251966.8112673783</v>
       </c>
       <c r="AE3" t="n">
-        <v>239250.5820745626</v>
+        <v>344752.1071670511</v>
       </c>
       <c r="AF3" t="n">
         <v>1.148178844642775e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.36458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>216416.8423117365</v>
+        <v>311849.4499217519</v>
       </c>
     </row>
     <row r="4">
@@ -10143,28 +10143,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.7108121885324</v>
+        <v>240.8853702371901</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.9963556475504</v>
+        <v>329.5899906708802</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.6184578454722</v>
+        <v>298.1343845438067</v>
       </c>
       <c r="AD4" t="n">
-        <v>163710.8121885324</v>
+        <v>240885.3702371901</v>
       </c>
       <c r="AE4" t="n">
-        <v>223996.3556475504</v>
+        <v>329589.9906708802</v>
       </c>
       <c r="AF4" t="n">
         <v>1.188153756992586e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>202618.4578454722</v>
+        <v>298134.3845438067</v>
       </c>
     </row>
     <row r="5">
@@ -10249,28 +10249,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>162.5263406308312</v>
+        <v>230.0166538571355</v>
       </c>
       <c r="AB5" t="n">
-        <v>222.3757094071074</v>
+        <v>314.7189334257713</v>
       </c>
       <c r="AC5" t="n">
-        <v>201.1524838076253</v>
+        <v>284.6826001305063</v>
       </c>
       <c r="AD5" t="n">
-        <v>162526.3406308312</v>
+        <v>230016.6538571355</v>
       </c>
       <c r="AE5" t="n">
-        <v>222375.7094071074</v>
+        <v>314718.9334257713</v>
       </c>
       <c r="AF5" t="n">
         <v>1.223966026082131e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.40104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>201152.4838076253</v>
+        <v>284682.6001305063</v>
       </c>
     </row>
     <row r="6">
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>161.9968170146263</v>
+        <v>229.4871302409306</v>
       </c>
       <c r="AB6" t="n">
-        <v>221.6511918344829</v>
+        <v>313.9944158531468</v>
       </c>
       <c r="AC6" t="n">
-        <v>200.4971131752651</v>
+        <v>284.027229498146</v>
       </c>
       <c r="AD6" t="n">
-        <v>161996.8170146263</v>
+        <v>229487.1302409306</v>
       </c>
       <c r="AE6" t="n">
-        <v>221651.1918344829</v>
+        <v>313994.4158531469</v>
       </c>
       <c r="AF6" t="n">
         <v>1.233820999394242e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>200497.1131752651</v>
+        <v>284027.229498146</v>
       </c>
     </row>
     <row r="7">
@@ -10461,28 +10461,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>161.4022960244414</v>
+        <v>228.8926092507457</v>
       </c>
       <c r="AB7" t="n">
-        <v>220.8377419872974</v>
+        <v>313.1809660059614</v>
       </c>
       <c r="AC7" t="n">
-        <v>199.7612978398107</v>
+        <v>283.2914141626916</v>
       </c>
       <c r="AD7" t="n">
-        <v>161402.2960244414</v>
+        <v>228892.6092507457</v>
       </c>
       <c r="AE7" t="n">
-        <v>220837.7419872974</v>
+        <v>313180.9660059614</v>
       </c>
       <c r="AF7" t="n">
         <v>1.24459649219155e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>199761.2978398107</v>
+        <v>283291.4141626916</v>
       </c>
     </row>
     <row r="8">
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>160.6856260317129</v>
+        <v>228.1759392580172</v>
       </c>
       <c r="AB8" t="n">
-        <v>219.8571624859981</v>
+        <v>312.200386504662</v>
       </c>
       <c r="AC8" t="n">
-        <v>198.8743034698631</v>
+        <v>282.404419792744</v>
       </c>
       <c r="AD8" t="n">
-        <v>160685.6260317129</v>
+        <v>228175.9392580172</v>
       </c>
       <c r="AE8" t="n">
-        <v>219857.1624859981</v>
+        <v>312200.386504662</v>
       </c>
       <c r="AF8" t="n">
         <v>1.257246866587384e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.01041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>198874.3034698631</v>
+        <v>282404.419792744</v>
       </c>
     </row>
   </sheetData>
@@ -10864,28 +10864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.8569121107949</v>
+        <v>325.3837766520245</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.7638794873484</v>
+        <v>445.2044381344074</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.0095723925212</v>
+        <v>402.7147514072122</v>
       </c>
       <c r="AD2" t="n">
-        <v>227856.9121107949</v>
+        <v>325383.7766520245</v>
       </c>
       <c r="AE2" t="n">
-        <v>311763.8794873484</v>
+        <v>445204.4381344074</v>
       </c>
       <c r="AF2" t="n">
         <v>8.278732447555967e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.34895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>282009.5723925213</v>
+        <v>402714.7514072122</v>
       </c>
     </row>
     <row r="3">
@@ -10970,28 +10970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.1197769930409</v>
+        <v>278.9511263652031</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.4985104912463</v>
+        <v>381.6732375480212</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.5414596655028</v>
+        <v>345.2468794381905</v>
       </c>
       <c r="AD3" t="n">
-        <v>191119.7769930409</v>
+        <v>278951.1263652031</v>
       </c>
       <c r="AE3" t="n">
-        <v>261498.5104912464</v>
+        <v>381673.2375480212</v>
       </c>
       <c r="AF3" t="n">
         <v>9.677420999665921e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>236541.4596655028</v>
+        <v>345246.8794381905</v>
       </c>
     </row>
     <row r="4">
@@ -11076,28 +11076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>178.7557024254734</v>
+        <v>256.8583822396419</v>
       </c>
       <c r="AB4" t="n">
-        <v>244.581438203436</v>
+        <v>351.4449703721796</v>
       </c>
       <c r="AC4" t="n">
-        <v>221.2389290135756</v>
+        <v>317.9035556560776</v>
       </c>
       <c r="AD4" t="n">
-        <v>178755.7024254734</v>
+        <v>256858.3822396419</v>
       </c>
       <c r="AE4" t="n">
-        <v>244581.438203436</v>
+        <v>351444.9703721796</v>
       </c>
       <c r="AF4" t="n">
         <v>1.026631982652868e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.59895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>221238.9290135756</v>
+        <v>317903.5556560776</v>
       </c>
     </row>
     <row r="5">
@@ -11182,28 +11182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.6274272611927</v>
+        <v>255.628621848876</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.0376823476808</v>
+        <v>349.7623579523352</v>
       </c>
       <c r="AC5" t="n">
-        <v>219.8425070500182</v>
+        <v>316.3815294040212</v>
       </c>
       <c r="AD5" t="n">
-        <v>177627.4272611927</v>
+        <v>255628.621848876</v>
       </c>
       <c r="AE5" t="n">
-        <v>243037.6823476808</v>
+        <v>349762.3579523352</v>
       </c>
       <c r="AF5" t="n">
         <v>1.054689433812561e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.18229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>219842.5070500182</v>
+        <v>316381.5294040212</v>
       </c>
     </row>
     <row r="6">
@@ -11288,28 +11288,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>177.0516503413999</v>
+        <v>245.3583407898737</v>
       </c>
       <c r="AB6" t="n">
-        <v>242.2498789645357</v>
+        <v>335.7101063145926</v>
       </c>
       <c r="AC6" t="n">
-        <v>219.1298905160712</v>
+        <v>303.6704049401213</v>
       </c>
       <c r="AD6" t="n">
-        <v>177051.6503413999</v>
+        <v>245358.3407898737</v>
       </c>
       <c r="AE6" t="n">
-        <v>242249.8789645357</v>
+        <v>335710.1063145926</v>
       </c>
       <c r="AF6" t="n">
         <v>1.065598613835837e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.02604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>219129.8905160711</v>
+        <v>303670.4049401213</v>
       </c>
     </row>
     <row r="7">
@@ -11394,28 +11394,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>166.6175517554469</v>
+        <v>244.6860661508346</v>
       </c>
       <c r="AB7" t="n">
-        <v>227.9734849593002</v>
+        <v>334.7902704947959</v>
       </c>
       <c r="AC7" t="n">
-        <v>206.2160155176459</v>
+        <v>302.8383569599681</v>
       </c>
       <c r="AD7" t="n">
-        <v>166617.5517554469</v>
+        <v>244686.0661508346</v>
       </c>
       <c r="AE7" t="n">
-        <v>227973.4849593001</v>
+        <v>334790.2704947959</v>
       </c>
       <c r="AF7" t="n">
         <v>1.076317052414825e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>206216.0155176459</v>
+        <v>302838.356959968</v>
       </c>
     </row>
     <row r="8">
@@ -11500,28 +11500,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>166.1297501866193</v>
+        <v>244.198264582007</v>
       </c>
       <c r="AB8" t="n">
-        <v>227.3060533325441</v>
+        <v>334.1228388680399</v>
       </c>
       <c r="AC8" t="n">
-        <v>205.6122826286011</v>
+        <v>302.2346240709232</v>
       </c>
       <c r="AD8" t="n">
-        <v>166129.7501866193</v>
+        <v>244198.264582007</v>
       </c>
       <c r="AE8" t="n">
-        <v>227306.0533325441</v>
+        <v>334122.8388680399</v>
       </c>
       <c r="AF8" t="n">
         <v>1.086561713858002e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>205612.2826286011</v>
+        <v>302234.6240709232</v>
       </c>
     </row>
     <row r="9">
@@ -11606,28 +11606,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>165.2254505508994</v>
+        <v>243.293964946287</v>
       </c>
       <c r="AB9" t="n">
-        <v>226.0687506760684</v>
+        <v>332.8855362115642</v>
       </c>
       <c r="AC9" t="n">
-        <v>204.4930664010939</v>
+        <v>301.115407843416</v>
       </c>
       <c r="AD9" t="n">
-        <v>165225.4505508993</v>
+        <v>243293.964946287</v>
       </c>
       <c r="AE9" t="n">
-        <v>226068.7506760684</v>
+        <v>332885.5362115642</v>
       </c>
       <c r="AF9" t="n">
         <v>1.098793778091658e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>204493.0664010939</v>
+        <v>301115.407843416</v>
       </c>
     </row>
     <row r="10">
@@ -11712,28 +11712,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>165.1110564725212</v>
+        <v>243.1795708679089</v>
       </c>
       <c r="AB10" t="n">
-        <v>225.912231651321</v>
+        <v>332.7290171868167</v>
       </c>
       <c r="AC10" t="n">
-        <v>204.3514853323924</v>
+        <v>300.9738267747145</v>
       </c>
       <c r="AD10" t="n">
-        <v>165111.0564725212</v>
+        <v>243179.5708679089</v>
       </c>
       <c r="AE10" t="n">
-        <v>225912.2316513209</v>
+        <v>332729.0171868167</v>
       </c>
       <c r="AF10" t="n">
         <v>1.098904531188341e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>204351.4853323924</v>
+        <v>300973.8267747145</v>
       </c>
     </row>
     <row r="11">
@@ -11818,28 +11818,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>164.6568787857128</v>
+        <v>242.7253931811005</v>
       </c>
       <c r="AB11" t="n">
-        <v>225.2908057033247</v>
+        <v>332.1075912388204</v>
       </c>
       <c r="AC11" t="n">
-        <v>203.7893674046959</v>
+        <v>300.411708847018</v>
       </c>
       <c r="AD11" t="n">
-        <v>164656.8787857128</v>
+        <v>242725.3931811005</v>
       </c>
       <c r="AE11" t="n">
-        <v>225290.8057033246</v>
+        <v>332107.5912388204</v>
       </c>
       <c r="AF11" t="n">
         <v>1.10043046274264e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>203789.3674046959</v>
+        <v>300411.708847018</v>
       </c>
     </row>
   </sheetData>
@@ -12115,28 +12115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.9173552841898</v>
+        <v>248.0752911978373</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.2249099581527</v>
+        <v>339.427557726159</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.7753746920491</v>
+        <v>307.0330680064448</v>
       </c>
       <c r="AD2" t="n">
-        <v>171917.3552841898</v>
+        <v>248075.2911978373</v>
       </c>
       <c r="AE2" t="n">
-        <v>235224.9099581527</v>
+        <v>339427.557726159</v>
       </c>
       <c r="AF2" t="n">
         <v>1.260741208055293e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>212775.3746920491</v>
+        <v>307033.0680064448</v>
       </c>
     </row>
     <row r="3">
@@ -12221,28 +12221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.200345162145</v>
+        <v>225.7712192788821</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.824935674289</v>
+        <v>308.9101425404531</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.0360295328146</v>
+        <v>279.4281920945917</v>
       </c>
       <c r="AD3" t="n">
-        <v>159200.345162145</v>
+        <v>225771.2192788821</v>
       </c>
       <c r="AE3" t="n">
-        <v>217824.935674289</v>
+        <v>308910.1425404531</v>
       </c>
       <c r="AF3" t="n">
         <v>1.387712017535274e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>197036.0295328146</v>
+        <v>279428.1920945917</v>
       </c>
     </row>
     <row r="4">
@@ -12327,28 +12327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.2028126292721</v>
+        <v>224.2924177053579</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.7776264859265</v>
+        <v>306.8867809874373</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.4248144143535</v>
+        <v>277.5979373283893</v>
       </c>
       <c r="AD4" t="n">
-        <v>148202.8126292721</v>
+        <v>224292.4177053579</v>
       </c>
       <c r="AE4" t="n">
-        <v>202777.6264859265</v>
+        <v>306886.7809874373</v>
       </c>
       <c r="AF4" t="n">
         <v>1.436059568562419e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH4" t="n">
-        <v>183424.8144143535</v>
+        <v>277597.9373283893</v>
       </c>
     </row>
     <row r="5">
@@ -12433,28 +12433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.3327569251877</v>
+        <v>213.9709508496292</v>
       </c>
       <c r="AB5" t="n">
-        <v>201.5871778874502</v>
+        <v>292.7644946844558</v>
       </c>
       <c r="AC5" t="n">
-        <v>182.3479805593103</v>
+        <v>264.8234622094065</v>
       </c>
       <c r="AD5" t="n">
-        <v>147332.7569251877</v>
+        <v>213970.9508496292</v>
       </c>
       <c r="AE5" t="n">
-        <v>201587.1778874502</v>
+        <v>292764.4946844557</v>
       </c>
       <c r="AF5" t="n">
         <v>1.460827812615513e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>182347.9805593103</v>
+        <v>264823.4622094065</v>
       </c>
     </row>
     <row r="6">
@@ -12539,28 +12539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>147.0849882242552</v>
+        <v>213.7231821486967</v>
       </c>
       <c r="AB6" t="n">
-        <v>201.2481698200508</v>
+        <v>292.4254866170564</v>
       </c>
       <c r="AC6" t="n">
-        <v>182.0413269460626</v>
+        <v>264.5168085961588</v>
       </c>
       <c r="AD6" t="n">
-        <v>147084.9882242552</v>
+        <v>213723.1821486967</v>
       </c>
       <c r="AE6" t="n">
-        <v>201248.1698200508</v>
+        <v>292425.4866170564</v>
       </c>
       <c r="AF6" t="n">
         <v>1.469771687674636e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH6" t="n">
-        <v>182041.3269460626</v>
+        <v>264516.8085961588</v>
       </c>
     </row>
   </sheetData>
@@ -12836,28 +12836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.3869005334795</v>
+        <v>231.5602020638722</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.9754566129337</v>
+        <v>316.8308841787682</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.553939350296</v>
+        <v>286.5929892677793</v>
       </c>
       <c r="AD2" t="n">
-        <v>156386.9005334795</v>
+        <v>231560.2020638722</v>
       </c>
       <c r="AE2" t="n">
-        <v>213975.4566129337</v>
+        <v>316830.8841787682</v>
       </c>
       <c r="AF2" t="n">
         <v>1.55026721814823e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>193553.939350296</v>
+        <v>286592.9892677793</v>
       </c>
     </row>
     <row r="3">
@@ -12942,28 +12942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.6605595058042</v>
+        <v>210.467093086331</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.9309594892216</v>
+        <v>287.9703619134186</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.0407065134727</v>
+        <v>260.486874741428</v>
       </c>
       <c r="AD3" t="n">
-        <v>144660.5595058042</v>
+        <v>210467.093086331</v>
       </c>
       <c r="AE3" t="n">
-        <v>197930.9594892215</v>
+        <v>287970.3619134186</v>
       </c>
       <c r="AF3" t="n">
         <v>1.663617801670813e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>179040.7065134727</v>
+        <v>260486.8747414281</v>
       </c>
     </row>
     <row r="4">
@@ -13048,28 +13048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.7988392674364</v>
+        <v>209.5038876214781</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.7519158426736</v>
+        <v>286.6524617027814</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.9741891377527</v>
+        <v>259.2947530772091</v>
       </c>
       <c r="AD4" t="n">
-        <v>143798.8392674364</v>
+        <v>209503.8876214781</v>
       </c>
       <c r="AE4" t="n">
-        <v>196751.9158426736</v>
+        <v>286652.4617027814</v>
       </c>
       <c r="AF4" t="n">
         <v>1.703416102118146e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>177974.1891377527</v>
+        <v>259294.7530772091</v>
       </c>
     </row>
     <row r="5">
@@ -13154,28 +13154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>143.8500660630806</v>
+        <v>209.5551144171222</v>
       </c>
       <c r="AB5" t="n">
-        <v>196.8220066044406</v>
+        <v>286.7225524645484</v>
       </c>
       <c r="AC5" t="n">
-        <v>178.0375905355897</v>
+        <v>259.358154475046</v>
       </c>
       <c r="AD5" t="n">
-        <v>143850.0660630806</v>
+        <v>209555.1144171222</v>
       </c>
       <c r="AE5" t="n">
-        <v>196822.0066044406</v>
+        <v>286722.5524645484</v>
       </c>
       <c r="AF5" t="n">
         <v>1.703232940972103e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>178037.5905355897</v>
+        <v>259358.1544750461</v>
       </c>
     </row>
   </sheetData>
@@ -23856,28 +23856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.9238937045707</v>
+        <v>217.3033022082265</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.5547767236872</v>
+        <v>297.3239648262524</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.8913032960867</v>
+        <v>268.9477829201282</v>
       </c>
       <c r="AD2" t="n">
-        <v>142923.8937045707</v>
+        <v>217303.3022082265</v>
       </c>
       <c r="AE2" t="n">
-        <v>195554.7767236872</v>
+        <v>297323.9648262524</v>
       </c>
       <c r="AF2" t="n">
         <v>1.82499004139289e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>176891.3032960867</v>
+        <v>268947.7829201282</v>
       </c>
     </row>
     <row r="3">
@@ -23962,28 +23962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.2522689716064</v>
+        <v>206.2925556686864</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.2675860171681</v>
+        <v>282.258575651007</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.8223988605048</v>
+        <v>255.3202133433569</v>
       </c>
       <c r="AD3" t="n">
-        <v>141252.2689716064</v>
+        <v>206292.5556686864</v>
       </c>
       <c r="AE3" t="n">
-        <v>193267.5860171681</v>
+        <v>282258.5756510071</v>
       </c>
       <c r="AF3" t="n">
         <v>1.928808658413024e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>174822.3988605048</v>
+        <v>255320.2133433569</v>
       </c>
     </row>
     <row r="4">
@@ -24068,28 +24068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.1533519896299</v>
+        <v>196.9560021066194</v>
       </c>
       <c r="AB4" t="n">
-        <v>193.1322434385188</v>
+        <v>269.4838911677207</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.6999731876072</v>
+        <v>243.7647268177691</v>
       </c>
       <c r="AD4" t="n">
-        <v>141153.3519896299</v>
+        <v>196956.0021066194</v>
       </c>
       <c r="AE4" t="n">
-        <v>193132.2434385188</v>
+        <v>269483.8911677207</v>
       </c>
       <c r="AF4" t="n">
         <v>1.944441691035359e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>174699.9731876072</v>
+        <v>243764.7268177691</v>
       </c>
     </row>
   </sheetData>
@@ -24365,28 +24365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.3618945731684</v>
+        <v>200.0844175120049</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.5763600171369</v>
+        <v>273.764327141314</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.7697740787198</v>
+        <v>247.6366439896736</v>
       </c>
       <c r="AD2" t="n">
-        <v>136361.8945731684</v>
+        <v>200084.4175120049</v>
       </c>
       <c r="AE2" t="n">
-        <v>186576.3600171369</v>
+        <v>273764.327141314</v>
       </c>
       <c r="AF2" t="n">
         <v>2.54406996204413e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>168769.7740787198</v>
+        <v>247636.6439896736</v>
       </c>
     </row>
   </sheetData>
@@ -24662,28 +24662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.9344468290339</v>
+        <v>284.4168783325058</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.8226424028622</v>
+        <v>389.1517205216432</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.9757095139782</v>
+        <v>352.0116264929269</v>
       </c>
       <c r="AD2" t="n">
-        <v>197934.4468290339</v>
+        <v>284416.8783325058</v>
       </c>
       <c r="AE2" t="n">
-        <v>270822.6424028623</v>
+        <v>389151.7205216432</v>
       </c>
       <c r="AF2" t="n">
         <v>1.048516728586971e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>244975.7095139782</v>
+        <v>352011.6264929269</v>
       </c>
     </row>
     <row r="3">
@@ -24768,28 +24768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.4341357145822</v>
+        <v>240.7440276711781</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.3002358586444</v>
+        <v>329.3965995364687</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.6526344013368</v>
+        <v>297.9594503878371</v>
       </c>
       <c r="AD3" t="n">
-        <v>173434.1357145822</v>
+        <v>240744.027671178</v>
       </c>
       <c r="AE3" t="n">
-        <v>237300.2358586444</v>
+        <v>329396.5995364687</v>
       </c>
       <c r="AF3" t="n">
         <v>1.19636511057611e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>214652.6344013368</v>
+        <v>297959.4503878371</v>
       </c>
     </row>
     <row r="4">
@@ -24874,28 +24874,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.0567621776127</v>
+        <v>229.433973941913</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.7332114510749</v>
+        <v>313.9216850597407</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.5713049547648</v>
+        <v>283.9614400295842</v>
       </c>
       <c r="AD4" t="n">
-        <v>162056.7621776127</v>
+        <v>229433.973941913</v>
       </c>
       <c r="AE4" t="n">
-        <v>221733.2114510749</v>
+        <v>313921.6850597407</v>
       </c>
       <c r="AF4" t="n">
         <v>1.249529005794291e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.50520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>200571.3049547648</v>
+        <v>283961.4400295842</v>
       </c>
     </row>
     <row r="5">
@@ -24980,28 +24980,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.3762547912795</v>
+        <v>228.6519813290945</v>
       </c>
       <c r="AB5" t="n">
-        <v>220.8021112232272</v>
+        <v>312.8517282678037</v>
       </c>
       <c r="AC5" t="n">
-        <v>199.7290676258552</v>
+        <v>282.9935984121756</v>
       </c>
       <c r="AD5" t="n">
-        <v>161376.2547912795</v>
+        <v>228651.9813290945</v>
       </c>
       <c r="AE5" t="n">
-        <v>220802.1112232272</v>
+        <v>312851.7282678037</v>
       </c>
       <c r="AF5" t="n">
         <v>1.269732538693673e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>199729.0676258552</v>
+        <v>282993.5984121756</v>
       </c>
     </row>
     <row r="6">
@@ -25086,28 +25086,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.6426350884592</v>
+        <v>227.9183616262743</v>
       </c>
       <c r="AB6" t="n">
-        <v>219.7983403808119</v>
+        <v>311.8479574253885</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.8210952638385</v>
+        <v>282.0856260501589</v>
       </c>
       <c r="AD6" t="n">
-        <v>160642.6350884592</v>
+        <v>227918.3616262743</v>
       </c>
       <c r="AE6" t="n">
-        <v>219798.3403808119</v>
+        <v>311847.9574253884</v>
       </c>
       <c r="AF6" t="n">
         <v>1.283519379435552e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.11458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>198821.0952638385</v>
+        <v>282085.6260501589</v>
       </c>
     </row>
     <row r="7">
@@ -25192,28 +25192,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>159.8968460184937</v>
+        <v>227.1725725563087</v>
       </c>
       <c r="AB7" t="n">
-        <v>218.7779188733938</v>
+        <v>310.8275359179704</v>
       </c>
       <c r="AC7" t="n">
-        <v>197.8980613529175</v>
+        <v>281.1625921392379</v>
       </c>
       <c r="AD7" t="n">
-        <v>159896.8460184937</v>
+        <v>227172.5725563087</v>
       </c>
       <c r="AE7" t="n">
-        <v>218777.9188733938</v>
+        <v>310827.5359179704</v>
       </c>
       <c r="AF7" t="n">
         <v>1.294598960687986e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.01041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>197898.0613529175</v>
+        <v>281162.5921392379</v>
       </c>
     </row>
     <row r="8">
@@ -25298,28 +25298,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>149.7939392649367</v>
+        <v>226.6890899651116</v>
       </c>
       <c r="AB8" t="n">
-        <v>204.9546761443947</v>
+        <v>310.1660137069483</v>
       </c>
       <c r="AC8" t="n">
-        <v>185.3940895089267</v>
+        <v>280.5642046795833</v>
       </c>
       <c r="AD8" t="n">
-        <v>149793.9392649367</v>
+        <v>226689.0899651116</v>
       </c>
       <c r="AE8" t="n">
-        <v>204954.6761443947</v>
+        <v>310166.0137069483</v>
       </c>
       <c r="AF8" t="n">
         <v>1.306548483935743e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.88020833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>185394.0895089267</v>
+        <v>280564.2046795833</v>
       </c>
     </row>
   </sheetData>
@@ -25595,28 +25595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.9652633707709</v>
+        <v>313.2943858815919</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.4932010587392</v>
+        <v>428.6632003360226</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.2917446770927</v>
+        <v>387.7521861285321</v>
       </c>
       <c r="AD2" t="n">
-        <v>215965.2633707709</v>
+        <v>313294.3858815919</v>
       </c>
       <c r="AE2" t="n">
-        <v>295493.2010587392</v>
+        <v>428663.2003360226</v>
       </c>
       <c r="AF2" t="n">
         <v>8.639548615104058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>267291.7446770927</v>
+        <v>387752.186128532</v>
       </c>
     </row>
     <row r="3">
@@ -25701,28 +25701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.3005919264275</v>
+        <v>267.1239024624048</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.0094212263263</v>
+        <v>365.4907080239193</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.2899255865671</v>
+        <v>330.6087878195462</v>
       </c>
       <c r="AD3" t="n">
-        <v>189300.5919264275</v>
+        <v>267123.9024624048</v>
       </c>
       <c r="AE3" t="n">
-        <v>259009.4212263263</v>
+        <v>365490.7080239193</v>
       </c>
       <c r="AF3" t="n">
         <v>1.011573772148437e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.19791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>234289.9255865671</v>
+        <v>330608.7878195462</v>
       </c>
     </row>
     <row r="4">
@@ -25807,28 +25807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.4831059940327</v>
+        <v>255.2722511112258</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.8402156229476</v>
+        <v>349.2747557871151</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.6638862723472</v>
+        <v>315.9404633050957</v>
       </c>
       <c r="AD4" t="n">
-        <v>177483.1059940327</v>
+        <v>255272.2511112258</v>
       </c>
       <c r="AE4" t="n">
-        <v>242840.2156229476</v>
+        <v>349274.7557871151</v>
       </c>
       <c r="AF4" t="n">
         <v>1.061272683743068e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>219663.8862723472</v>
+        <v>315940.4633050957</v>
       </c>
     </row>
     <row r="5">
@@ -25913,28 +25913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.4622947222607</v>
+        <v>244.5834418840556</v>
       </c>
       <c r="AB5" t="n">
-        <v>241.443496605895</v>
+        <v>334.6498554455259</v>
       </c>
       <c r="AC5" t="n">
-        <v>218.4004681579741</v>
+        <v>302.7113429259265</v>
       </c>
       <c r="AD5" t="n">
-        <v>176462.2947222607</v>
+        <v>244583.4418840556</v>
       </c>
       <c r="AE5" t="n">
-        <v>241443.496605895</v>
+        <v>334649.8554455259</v>
       </c>
       <c r="AF5" t="n">
         <v>1.088307432692241e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.05208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>218400.4681579741</v>
+        <v>302711.3429259266</v>
       </c>
     </row>
     <row r="6">
@@ -26019,28 +26019,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>165.9902711330432</v>
+        <v>243.8467360579407</v>
       </c>
       <c r="AB6" t="n">
-        <v>227.1152119380599</v>
+        <v>333.6418620330687</v>
       </c>
       <c r="AC6" t="n">
-        <v>205.4396548689588</v>
+        <v>301.7995509900263</v>
       </c>
       <c r="AD6" t="n">
-        <v>165990.2711330432</v>
+        <v>243846.7360579407</v>
       </c>
       <c r="AE6" t="n">
-        <v>227115.2119380599</v>
+        <v>333641.8620330687</v>
       </c>
       <c r="AF6" t="n">
         <v>1.099727554602383e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>205439.6548689588</v>
+        <v>301799.5509900263</v>
       </c>
     </row>
     <row r="7">
@@ -26125,28 +26125,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>165.3515137806317</v>
+        <v>243.2079787055292</v>
       </c>
       <c r="AB7" t="n">
-        <v>226.2412359485053</v>
+        <v>332.7678860435141</v>
       </c>
       <c r="AC7" t="n">
-        <v>204.649089921214</v>
+        <v>301.0089860422815</v>
       </c>
       <c r="AD7" t="n">
-        <v>165351.5137806317</v>
+        <v>243207.9787055292</v>
       </c>
       <c r="AE7" t="n">
-        <v>226241.2359485053</v>
+        <v>332767.8860435141</v>
       </c>
       <c r="AF7" t="n">
         <v>1.112097257133907e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>204649.089921214</v>
+        <v>301008.9860422816</v>
       </c>
     </row>
     <row r="8">
@@ -26231,28 +26231,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>164.8297930215961</v>
+        <v>242.6862579464936</v>
       </c>
       <c r="AB8" t="n">
-        <v>225.5273945892978</v>
+        <v>332.0540446843066</v>
       </c>
       <c r="AC8" t="n">
-        <v>204.0033765794464</v>
+        <v>300.363272700514</v>
       </c>
       <c r="AD8" t="n">
-        <v>164829.7930215961</v>
+        <v>242686.2579464936</v>
       </c>
       <c r="AE8" t="n">
-        <v>225527.3945892978</v>
+        <v>332054.0446843066</v>
       </c>
       <c r="AF8" t="n">
         <v>1.122077286578508e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>204003.3765794464</v>
+        <v>300363.2727005139</v>
       </c>
     </row>
     <row r="9">
@@ -26337,28 +26337,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>164.1714676373592</v>
+        <v>232.2584493803733</v>
       </c>
       <c r="AB9" t="n">
-        <v>224.6266447553191</v>
+        <v>317.7862569617021</v>
       </c>
       <c r="AC9" t="n">
-        <v>203.188593045412</v>
+        <v>287.4571826131844</v>
       </c>
       <c r="AD9" t="n">
-        <v>164171.4676373592</v>
+        <v>232258.4493803733</v>
       </c>
       <c r="AE9" t="n">
-        <v>224626.6447553191</v>
+        <v>317786.2569617021</v>
       </c>
       <c r="AF9" t="n">
         <v>1.133478542648489e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH9" t="n">
-        <v>203188.593045412</v>
+        <v>287457.1826131844</v>
       </c>
     </row>
     <row r="10">
@@ -26443,28 +26443,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>163.8708993155618</v>
+        <v>231.9578810585759</v>
       </c>
       <c r="AB10" t="n">
-        <v>224.2153939172975</v>
+        <v>317.3750061236806</v>
       </c>
       <c r="AC10" t="n">
-        <v>202.8165914101769</v>
+        <v>287.0851809779493</v>
       </c>
       <c r="AD10" t="n">
-        <v>163870.8993155617</v>
+        <v>231957.8810585758</v>
       </c>
       <c r="AE10" t="n">
-        <v>224215.3939172975</v>
+        <v>317375.0061236806</v>
       </c>
       <c r="AF10" t="n">
         <v>1.134333794069073e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.42708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>202816.5914101769</v>
+        <v>287085.1809779493</v>
       </c>
     </row>
     <row r="11">
@@ -26549,28 +26549,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>163.9471794663391</v>
+        <v>232.0341612093532</v>
       </c>
       <c r="AB11" t="n">
-        <v>224.3197637848338</v>
+        <v>317.4793759912168</v>
       </c>
       <c r="AC11" t="n">
-        <v>202.9110003640396</v>
+        <v>287.179589931812</v>
       </c>
       <c r="AD11" t="n">
-        <v>163947.1794663391</v>
+        <v>232034.1612093532</v>
       </c>
       <c r="AE11" t="n">
-        <v>224319.7637848338</v>
+        <v>317479.3759912169</v>
       </c>
       <c r="AF11" t="n">
         <v>1.134050806466674e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH11" t="n">
-        <v>202911.0003640396</v>
+        <v>287179.589931812</v>
       </c>
     </row>
   </sheetData>
@@ -26846,28 +26846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.1492382369211</v>
+        <v>197.3569237410803</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.5489060023768</v>
+        <v>270.0324498354042</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.031256026069</v>
+        <v>244.2609318161159</v>
       </c>
       <c r="AD2" t="n">
-        <v>134149.2382369211</v>
+        <v>197356.9237410803</v>
       </c>
       <c r="AE2" t="n">
-        <v>183548.9060023768</v>
+        <v>270032.4498354042</v>
       </c>
       <c r="AF2" t="n">
         <v>2.901767489309111e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.69791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>166031.256026069</v>
+        <v>244260.9318161159</v>
       </c>
     </row>
   </sheetData>
@@ -27143,28 +27143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.9991735135627</v>
+        <v>234.0677741482398</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.8638808016032</v>
+        <v>320.2618549308712</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.9259946339474</v>
+        <v>289.6965129867003</v>
       </c>
       <c r="AD2" t="n">
-        <v>167999.1735135627</v>
+        <v>234067.7741482398</v>
       </c>
       <c r="AE2" t="n">
-        <v>229863.8808016033</v>
+        <v>320261.8549308712</v>
       </c>
       <c r="AF2" t="n">
         <v>1.436899770899545e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>207925.9946339474</v>
+        <v>289696.5129867003</v>
       </c>
     </row>
     <row r="3">
@@ -27249,28 +27249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.2022108061909</v>
+        <v>212.3039658297917</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.0403148112648</v>
+        <v>290.4836522381265</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.9487479240796</v>
+        <v>262.7603001649717</v>
       </c>
       <c r="AD3" t="n">
-        <v>146202.2108061909</v>
+        <v>212303.9658297917</v>
       </c>
       <c r="AE3" t="n">
-        <v>200040.3148112648</v>
+        <v>290483.6522381265</v>
       </c>
       <c r="AF3" t="n">
         <v>1.567738735110338e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>180948.7479240797</v>
+        <v>262760.3001649717</v>
       </c>
     </row>
     <row r="4">
@@ -27355,28 +27355,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.1500778029082</v>
+        <v>211.1503476000238</v>
       </c>
       <c r="AB4" t="n">
-        <v>198.6007400193421</v>
+        <v>288.9052208821144</v>
       </c>
       <c r="AC4" t="n">
-        <v>179.6465641298416</v>
+        <v>261.3325120822346</v>
       </c>
       <c r="AD4" t="n">
-        <v>145150.0778029082</v>
+        <v>211150.3476000238</v>
       </c>
       <c r="AE4" t="n">
-        <v>198600.740019342</v>
+        <v>288905.2208821144</v>
       </c>
       <c r="AF4" t="n">
         <v>1.60677168018956e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>179646.5641298416</v>
+        <v>261332.5120822347</v>
       </c>
     </row>
     <row r="5">
@@ -27461,28 +27461,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.9071448529704</v>
+        <v>210.907414650086</v>
       </c>
       <c r="AB5" t="n">
-        <v>198.2683484397919</v>
+        <v>288.5728293025643</v>
       </c>
       <c r="AC5" t="n">
-        <v>179.3458955361291</v>
+        <v>261.0318434885222</v>
       </c>
       <c r="AD5" t="n">
-        <v>144907.1448529704</v>
+        <v>210907.414650086</v>
       </c>
       <c r="AE5" t="n">
-        <v>198268.3484397919</v>
+        <v>288572.8293025643</v>
       </c>
       <c r="AF5" t="n">
         <v>1.617268074114551e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>179345.8955361292</v>
+        <v>261031.8434885222</v>
       </c>
     </row>
   </sheetData>
@@ -27758,28 +27758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.7685236302034</v>
+        <v>260.1407874154788</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.4402013258078</v>
+        <v>355.936101943422</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.4431014098849</v>
+        <v>321.9660599333977</v>
       </c>
       <c r="AD2" t="n">
-        <v>183768.5236302034</v>
+        <v>260140.7874154788</v>
       </c>
       <c r="AE2" t="n">
-        <v>251440.2013258078</v>
+        <v>355936.101943422</v>
       </c>
       <c r="AF2" t="n">
         <v>1.180296309864871e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>227443.1014098849</v>
+        <v>321966.0599333977</v>
       </c>
     </row>
     <row r="3">
@@ -27864,28 +27864,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.7696570367665</v>
+        <v>237.1750752109622</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.9721374142987</v>
+        <v>324.5134013293336</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.978305352375</v>
+        <v>293.5422977639778</v>
       </c>
       <c r="AD3" t="n">
-        <v>160769.6570367665</v>
+        <v>237175.0752109622</v>
       </c>
       <c r="AE3" t="n">
-        <v>219972.1374142987</v>
+        <v>324513.4013293336</v>
       </c>
       <c r="AF3" t="n">
         <v>1.314026688651531e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>198978.305352375</v>
+        <v>293542.2977639778</v>
       </c>
     </row>
     <row r="4">
@@ -27970,28 +27970,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.2364607835601</v>
+        <v>226.0537766197101</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.8743506608179</v>
+        <v>309.2967499597239</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.0807284223835</v>
+        <v>279.7779022443744</v>
       </c>
       <c r="AD4" t="n">
-        <v>159236.4607835601</v>
+        <v>226053.7766197101</v>
       </c>
       <c r="AE4" t="n">
-        <v>217874.3506608179</v>
+        <v>309296.7499597238</v>
       </c>
       <c r="AF4" t="n">
         <v>1.370919681387818e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>197080.7284223835</v>
+        <v>279777.9022443744</v>
       </c>
     </row>
     <row r="5">
@@ -28076,28 +28076,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.7427693049059</v>
+        <v>215.6274049487604</v>
       </c>
       <c r="AB5" t="n">
-        <v>203.5164190307357</v>
+        <v>295.0309282604831</v>
       </c>
       <c r="AC5" t="n">
-        <v>184.0930976355882</v>
+        <v>266.8735905458981</v>
       </c>
       <c r="AD5" t="n">
-        <v>148742.7693049059</v>
+        <v>215627.4049487603</v>
       </c>
       <c r="AE5" t="n">
-        <v>203516.4190307357</v>
+        <v>295030.9282604831</v>
       </c>
       <c r="AF5" t="n">
         <v>1.393271028963724e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>184093.0976355882</v>
+        <v>266873.5905458981</v>
       </c>
     </row>
     <row r="6">
@@ -28182,28 +28182,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>148.1567295165377</v>
+        <v>215.0413651603921</v>
       </c>
       <c r="AB6" t="n">
-        <v>202.7145735380399</v>
+        <v>294.2290827677872</v>
       </c>
       <c r="AC6" t="n">
-        <v>183.3677791513178</v>
+        <v>266.1482720616277</v>
       </c>
       <c r="AD6" t="n">
-        <v>148156.7295165377</v>
+        <v>215041.3651603921</v>
       </c>
       <c r="AE6" t="n">
-        <v>202714.5735380399</v>
+        <v>294229.0827677873</v>
       </c>
       <c r="AF6" t="n">
         <v>1.407098055446235e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.69791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>183367.7791513178</v>
+        <v>266148.2720616277</v>
       </c>
     </row>
     <row r="7">
@@ -28288,28 +28288,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>148.2724448336203</v>
+        <v>215.1570804774747</v>
       </c>
       <c r="AB7" t="n">
-        <v>202.8729003398718</v>
+        <v>294.3874095696191</v>
       </c>
       <c r="AC7" t="n">
-        <v>183.510995465396</v>
+        <v>266.2914883757059</v>
       </c>
       <c r="AD7" t="n">
-        <v>148272.4448336203</v>
+        <v>215157.0804774747</v>
       </c>
       <c r="AE7" t="n">
-        <v>202872.9003398718</v>
+        <v>294387.4095696192</v>
       </c>
       <c r="AF7" t="n">
         <v>1.406201927859527e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.72395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>183510.995465396</v>
+        <v>266291.4883757058</v>
       </c>
     </row>
   </sheetData>
